--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3665062.285431516</v>
+        <v>3662810.20572031</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7639647.645709575</v>
+        <v>7639647.645709572</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>341.9582190164954</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>143.065997761737</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247809</v>
+        <v>18.8172186824781</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>109.3405369610676</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,10 +829,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>163.4723387335435</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>55.45354938846194</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>47.00383878332079</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1069,10 +1069,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>38.26221019674286</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,10 +1111,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>9.595802811127321</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>56.91547624318616</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>71.68269007697828</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>37.34603395015496</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,10 +1348,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>26.05155675490728</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1421,7 +1421,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="12">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0.6324680438225141</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,13 +1585,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>75.08886905994775</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1658,7 +1658,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>121.2172995552597</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>67.43549003635358</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>52.54490042791048</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2412,7 +2412,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131.437227901961</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2649,7 +2649,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60.46574022124193</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887056</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187849</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2886,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.307475200959</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3123,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.66054613217701</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>167.3637267182081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187849</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3360,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>108.2950343703272</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>26.1362719570585</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3597,7 +3597,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>107.4021082756239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3803,7 +3803,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3834,7 +3834,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3904,10 +3904,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4071,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,10 +4150,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>42.71572132711237</v>
       </c>
       <c r="I46" t="n">
-        <v>66.25628701154712</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1127.748203495405</v>
+        <v>1540.864437266279</v>
       </c>
       <c r="C2" t="n">
-        <v>1127.748203495405</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="D2" t="n">
-        <v>769.4825048886548</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E2" t="n">
-        <v>424.0701624477504</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985469</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4349,7 +4349,7 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609172</v>
@@ -4358,22 +4358,22 @@
         <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410104</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066533</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796419</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535339</v>
+        <v>1927.464277330401</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559527</v>
+        <v>1927.464277330401</v>
       </c>
     </row>
     <row r="3">
@@ -4404,10 +4404,10 @@
         <v>85.51940803064616</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031481</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>785.6801677492715</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>785.6801677492715</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>675.2351809199102</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3220873375171</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>380.4321398396067</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143257</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1705.527932658019</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W4" t="n">
-        <v>1416.110762621059</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X4" t="n">
-        <v>1188.121211723041</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>967.3286325795112</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796274</v>
+        <v>1628.178203944121</v>
       </c>
       <c r="C5" t="n">
-        <v>552.8079389392158</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>552.8079389392158</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>167.0196863409715</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4586,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794326</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450755</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180641</v>
+        <v>2388.243802269322</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919561</v>
+        <v>2014.778044008242</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943749</v>
+        <v>2014.778044008242</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064549</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>679.6952191369614</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="C7" t="n">
-        <v>510.7590362090546</v>
+        <v>461.8675266085669</v>
       </c>
       <c r="D7" t="n">
-        <v>360.6423967967188</v>
+        <v>311.7508871962312</v>
       </c>
       <c r="E7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218345</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1888.645850920066</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1888.645850920066</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1888.645850920066</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U7" t="n">
-        <v>1599.542984045709</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V7" t="n">
-        <v>1599.542984045709</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W7" t="n">
-        <v>1310.125814008749</v>
+        <v>1092.298121480354</v>
       </c>
       <c r="X7" t="n">
-        <v>1082.136263110731</v>
+        <v>864.3085705823368</v>
       </c>
       <c r="Y7" t="n">
-        <v>861.3436839672012</v>
+        <v>643.5159914388066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4778,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1648.00486941082</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.042352470408</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D8" t="n">
-        <v>920.7766538636577</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E8" t="n">
-        <v>534.9884012654134</v>
+        <v>198.893319710031</v>
       </c>
       <c r="F8" t="n">
-        <v>124.0024964758058</v>
+        <v>191.9478189608275</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>180.9157728462281</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4841,13 +4841,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450753</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2034.604709474942</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>675.2351809199101</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C10" t="n">
-        <v>675.2351809199101</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F10" t="n">
         <v>380.4321398396066</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1889.571281472175</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1667.804666041701</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U10" t="n">
-        <v>1378.701799167344</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.017310961457</v>
+        <v>1300.279904748355</v>
       </c>
       <c r="W10" t="n">
-        <v>1124.017310961457</v>
+        <v>1010.862734711394</v>
       </c>
       <c r="X10" t="n">
-        <v>896.0277600634403</v>
+        <v>782.8731838133765</v>
       </c>
       <c r="Y10" t="n">
-        <v>675.2351809199101</v>
+        <v>562.0806046698464</v>
       </c>
     </row>
     <row r="11">
@@ -5030,43 +5030,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811332</v>
+        <v>847.644273983533</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532263</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408905</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.278523222742</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2159.677058245683</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1870.601831589881</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1353.195110654903</v>
+        <v>1068.436853127063</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>847.644273983533</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,16 +5294,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>590.9096564684978</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1188.28814409505</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1815.886107649656</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2367.795837888943</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.1060525954244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5507,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,37 +5525,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,16 +5647,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F19" t="n">
         <v>235.5284942057738</v>
@@ -5665,58 +5665,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,22 +5762,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803938</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>245.2306927803938</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>842.6091804069456</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>931.4710609784063</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>762.5348780504994</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>229.5592957321579</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2393.887426582372</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2393.887426582372</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2174.285961605313</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1885.210734949511</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1630.526246743624</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1341.109076706663</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1113.119525808646</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,34 +5975,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694708</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,22 +6251,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.584050252739</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>1058.183521551621</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>701.4712640439268</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C28" t="n">
-        <v>532.5350811160199</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D28" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
         <v>235.5284942057738</v>
@@ -6376,58 +6376,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168593</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,28 +6534,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>228.933143164642</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>562.8579153358626</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>620.8230468926974</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>470.7064074803617</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000582</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694708</v>
@@ -6722,28 +6722,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>506.2737913123343</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
         <v>2283.159972732779</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D34" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E34" t="n">
-        <v>382.4184417036842</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F34" t="n">
-        <v>235.5284942057738</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1769.232122535068</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1251.82540160009</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1031.03282245656</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168595</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192269</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111683</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075776</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332384</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -6999,40 +6999,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714582</v>
+        <v>95.584050252739</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872168</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851784</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057737</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2420.562808876161</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2420.562808876161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7254,16 +7254,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191924</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>923.067041434951</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M39" t="n">
-        <v>1231.938859683105</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332388</v>
@@ -7424,13 +7424,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7451,7 +7451,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191924</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.067041434951</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N42" t="n">
         <v>1540.888753373307</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892232</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>414.4022433768874</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>266.4891497944943</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,52 +7622,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111731</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7722,7 +7722,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
@@ -7731,10 +7731,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1307.627092998424</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>747.3737171343192</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D46" t="n">
-        <v>597.2570777219835</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E46" t="n">
-        <v>449.3439841395904</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F46" t="n">
-        <v>302.45403664168</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="G46" t="n">
-        <v>302.45403664168</v>
+        <v>219.0505596597677</v>
       </c>
       <c r="H46" t="n">
-        <v>160.7422054838781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>180.3938179578221</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>150.6207863290894</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.6146806266776</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>151.1491633157412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,16 +24133,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>112.4047682534902</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>13.83034628221117</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.39475227997627</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.32043864788537</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>39.52450498097832</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>122.808416965156</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>84.77391660561989</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>38.13892827624201</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>154.8900140445861</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.5498640939303</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25792,10 +25792,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>55.74112246243958</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>97.57899151911153</v>
       </c>
       <c r="I46" t="n">
-        <v>15.00954930701843</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,10 +26071,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.159052251</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>657916.1590522514</v>
+        <v>657916.159052251</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>657916.1590522513</v>
+        <v>657916.1590522511</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>779989.6813710692</v>
+      </c>
+      <c r="C2" t="n">
+        <v>779989.6813710688</v>
+      </c>
+      <c r="D2" t="n">
         <v>779989.6813710693</v>
-      </c>
-      <c r="C2" t="n">
-        <v>779989.6813710692</v>
-      </c>
-      <c r="D2" t="n">
-        <v>779989.6813710689</v>
       </c>
       <c r="E2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="G2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="H2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="H2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="I2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055057</v>
       </c>
-      <c r="J2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="K2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
+        <v>766789.2697055056</v>
+      </c>
+      <c r="O2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="O2" t="n">
-        <v>766789.2697055062</v>
-      </c>
       <c r="P2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818164</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818175</v>
       </c>
       <c r="E4" t="n">
+        <v>12996.86414683048</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12996.86414683042</v>
+      </c>
+      <c r="G4" t="n">
+        <v>12996.86414683044</v>
+      </c>
+      <c r="H4" t="n">
         <v>12996.8641468304</v>
       </c>
-      <c r="F4" t="n">
-        <v>12996.86414683038</v>
-      </c>
-      <c r="G4" t="n">
-        <v>12996.86414683041</v>
-      </c>
-      <c r="H4" t="n">
-        <v>12996.86414683038</v>
-      </c>
       <c r="I4" t="n">
-        <v>12996.86414683051</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683049</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
+        <v>12996.86414683042</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12996.86414683042</v>
+      </c>
+      <c r="M4" t="n">
         <v>12996.86414683052</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12996.86414683044</v>
-      </c>
-      <c r="M4" t="n">
-        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="O4" t="n">
-        <v>12996.86414683046</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-748872.9038360987</v>
+        <v>-748872.9038360986</v>
       </c>
       <c r="C6" t="n">
-        <v>579871.8418914945</v>
+        <v>579871.8418914941</v>
       </c>
       <c r="D6" t="n">
-        <v>579871.8418914941</v>
+        <v>579871.8418914942</v>
       </c>
       <c r="E6" t="n">
-        <v>327257.4139274129</v>
+        <v>327222.6760019771</v>
       </c>
       <c r="F6" t="n">
-        <v>652669.8757347683</v>
+        <v>652635.1378093325</v>
       </c>
       <c r="G6" t="n">
-        <v>652669.8757347683</v>
+        <v>652635.1378093332</v>
       </c>
       <c r="H6" t="n">
-        <v>652669.8757347683</v>
+        <v>652635.1378093327</v>
       </c>
       <c r="I6" t="n">
-        <v>652669.8757347685</v>
+        <v>652635.1378093326</v>
       </c>
       <c r="J6" t="n">
-        <v>435138.6733374909</v>
+        <v>435103.9354120549</v>
       </c>
       <c r="K6" t="n">
-        <v>652669.8757347683</v>
+        <v>652635.1378093327</v>
       </c>
       <c r="L6" t="n">
-        <v>652669.8757347683</v>
+        <v>652635.1378093327</v>
       </c>
       <c r="M6" t="n">
-        <v>567614.8477992567</v>
+        <v>567580.109873821</v>
       </c>
       <c r="N6" t="n">
-        <v>652669.8757347683</v>
+        <v>652635.1378093325</v>
       </c>
       <c r="O6" t="n">
-        <v>652669.8757347686</v>
+        <v>652635.1378093328</v>
       </c>
       <c r="P6" t="n">
-        <v>652669.8757347686</v>
+        <v>652635.1378093327</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>6.234920625768702e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>6.234920625768702e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26814,10 +26814,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.234920625768702e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783846e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.234920625768702e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>39.9721510557664</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>226.665102916732</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>39.27493605714471</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27549,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>62.23731665549366</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>309.8193423825456</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>359.8722069583906</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,10 +27664,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>50.66994247330447</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27831,10 +27831,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.9271955254637</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>354.0062494102673</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>222.9250743103422</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,10 +28017,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>152.4229913812869</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>226.0860865689207</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28141,7 +28141,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-5.628150201704415e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>9.003997547551986e-13</v>
       </c>
     </row>
     <row r="12">
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29521,10 +29521,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.736439038534721e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.744524524838198e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30523,7 +30523,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>324.9782573297443</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31850,7 +31850,7 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550394</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437244</v>
@@ -31859,10 +31859,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32072,13 +32072,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473073</v>
@@ -32087,16 +32087,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>193.1175412796309</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>284.1014732918236</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>441.0292693655512</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>354.9153144485699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>638.0665277849409</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>191.3323016788565</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32859,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162548</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>622.4211036182651</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>734.267838362266</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33096,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>261.5336801130335</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33333,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>404.0195168876598</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067199</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>289.753744452628</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>251.8861049150245</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M39" t="n">
-        <v>454.1257695262143</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,46 +34044,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,37 +34120,37 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34159,10 +34159,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,40 +34205,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>151.9914336104083</v>
+        <v>602.4605829984181</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34284,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34314,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34357,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663298</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34396,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34445,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34521,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34551,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>187.1368183553853</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35498,7 +35498,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717061</v>
       </c>
       <c r="O12" t="n">
         <v>557.48457599928</v>
@@ -35507,10 +35507,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.3288951674331</v>
@@ -35735,16 +35735,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>61.77582919629761</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>150.1270658774933</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789214</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>302.474889585677</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>506.7248157016076</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193534</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>59.99058959552318</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>483.8667238383908</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>592.1338044402477</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>134.6960534463668</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>265.4651371077857</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236314005</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>151.912305478269</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>120.5443928316912</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M39" t="n">
-        <v>311.991735604196</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,31 +37774,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>20.64972152707497</v>
+        <v>471.1188709150848</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37944,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38011,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396436</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38181,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
